--- a/data/excel_ui/login/login.xlsx
+++ b/data/excel_ui/login/login.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanglinquan/PycharmProjects/py_exercises/data/excel_ui/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhanglinquan/PycharmProjects/py_exercises/data/excel_ui/login/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5920" yWindow="2980" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>url</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,9 +425,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="1">
+        <v>8888</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8888</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
